--- a/DatabaseExcel/HocVien.xlsx
+++ b/DatabaseExcel/HocVien.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\QuanLyDiem\DatabaseExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITT\QuanLyDiem\DatabaseExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D5125C9-82B6-4981-BF9F-41D9AAA66B6F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{E8E073FC-7D4B-4836-8D64-36542EC6BA2D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,37 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
-  <si>
-    <t>HV01</t>
-  </si>
-  <si>
-    <t>HV02</t>
-  </si>
-  <si>
-    <t>HV03</t>
-  </si>
-  <si>
-    <t>HV04</t>
-  </si>
-  <si>
-    <t>HV05</t>
-  </si>
-  <si>
-    <t>GVM</t>
-  </si>
-  <si>
-    <t>TP</t>
-  </si>
-  <si>
-    <t>TNV</t>
-  </si>
-  <si>
-    <t>LTT</t>
-  </si>
-  <si>
-    <t>LD</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>Nguyễn Văn Bình</t>
   </si>
@@ -74,12 +43,6 @@
     <t>Ngô Thùy Trang</t>
   </si>
   <si>
-    <t>23/02/1998</t>
-  </si>
-  <si>
-    <t>23/5/1993</t>
-  </si>
-  <si>
     <t>Lưu Bị</t>
   </si>
   <si>
@@ -96,12 +59,81 @@
   </si>
   <si>
     <t>lb@gmail.com</t>
+  </si>
+  <si>
+    <t>HV001</t>
+  </si>
+  <si>
+    <t>HV002</t>
+  </si>
+  <si>
+    <t>HV003</t>
+  </si>
+  <si>
+    <t>HV004</t>
+  </si>
+  <si>
+    <t>HV005</t>
+  </si>
+  <si>
+    <t>LSH001</t>
+  </si>
+  <si>
+    <t>LSH002</t>
+  </si>
+  <si>
+    <t>LSH003</t>
+  </si>
+  <si>
+    <t>0903555777</t>
+  </si>
+  <si>
+    <t>0903555666</t>
+  </si>
+  <si>
+    <t>0903789777</t>
+  </si>
+  <si>
+    <t>0902565656</t>
+  </si>
+  <si>
+    <t>0903555542</t>
+  </si>
+  <si>
+    <t>69 Lê Lai</t>
+  </si>
+  <si>
+    <t>12 Ông Ích Khiêm</t>
+  </si>
+  <si>
+    <t>50 Đinh Tiên Hoàng</t>
+  </si>
+  <si>
+    <t>K69/70 Trưng Nữ Vương</t>
+  </si>
+  <si>
+    <t>19 Cao Văn Mã</t>
+  </si>
+  <si>
+    <t>04061998</t>
+  </si>
+  <si>
+    <t>05101995</t>
+  </si>
+  <si>
+    <t>06061995</t>
+  </si>
+  <si>
+    <t>20081997</t>
+  </si>
+  <si>
+    <t>08121999</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -140,10 +172,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -458,129 +491,162 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1489175-0BE3-4A9D-8938-3D65D7857933}">
-  <dimension ref="A1:G5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="27.140625" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="1">
-        <v>36841</v>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="1">
+        <v>35950</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="1">
+        <v>34977</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="1">
+        <v>34856</v>
+      </c>
+      <c r="H3" t="s">
         <v>17</v>
       </c>
-      <c r="G1">
-        <v>903555777</v>
-      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="1">
+        <v>35662</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2">
-        <v>903555666</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1">
-        <v>34856</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3">
-        <v>903789777</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4">
-        <v>902565656</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="1">
+        <v>36502</v>
+      </c>
+      <c r="H5" t="s">
         <v>16</v>
-      </c>
-      <c r="C5" s="1">
-        <v>31413</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5">
-        <v>903555542</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F1" r:id="rId1" xr:uid="{9F5F617F-EA17-4E1E-A3C9-5D65E8AE2632}"/>
-    <hyperlink ref="F2" r:id="rId2" xr:uid="{10F6CB50-208A-48CB-9B60-82EF61F8B4F9}"/>
-    <hyperlink ref="F3" r:id="rId3" xr:uid="{5FDCEBAC-B90E-4B14-AEAA-FE9028FBA09B}"/>
-    <hyperlink ref="F4" r:id="rId4" xr:uid="{92430A6F-2ABD-4408-9A9C-B7B9439E4694}"/>
-    <hyperlink ref="F5" r:id="rId5" xr:uid="{0F5E9FB6-C745-4A53-A980-D613D79AF836}"/>
+    <hyperlink ref="C1" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId2"/>
+    <hyperlink ref="C3" r:id="rId3"/>
+    <hyperlink ref="C4" r:id="rId4"/>
+    <hyperlink ref="C5" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId6"/>
 </worksheet>
 </file>